--- a/Cvičení/Chybejici.xlsx
+++ b/Cvičení/Chybejici.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\datova-analyza-excel\Cvičení\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DataBon\datova-analyza-excel\Cvičení\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08688FB2-4AB9-4A61-B455-128DF1BD78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E21AAB-FB53-4B12-924E-E930AE849AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Průměr" sheetId="1" r:id="rId1"/>
@@ -320,14 +320,14 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21E026CE-CB29-4E60-B4E1-6A2AAB308488}" name="Clinical_Trials346" displayName="Clinical_Trials346" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{3D23E28B-4F4F-4588-ADFC-8D036AC4A728}" name="NCT" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A64DEFAF-4348-4758-B023-408E417149E5}" name="Sponsor" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3D23E28B-4F4F-4588-ADFC-8D036AC4A728}" name="NCT" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A64DEFAF-4348-4758-B023-408E417149E5}" name="Sponsor" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{FCC1EAE7-1EA9-4A30-A25C-39E0520B79B4}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{B8A09C7E-3D4E-4C52-B530-0A8C09C15787}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{C4FE3385-0D4C-4644-B1DD-15F2A731EE9F}" name="Phase" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C4FE3385-0D4C-4644-B1DD-15F2A731EE9F}" name="Phase" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{B61BCF05-D8A4-4F58-BFB5-A5B597F1DCDA}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{B363C291-2FAC-4B0C-87E4-CA11FE79C096}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{79B3701A-818D-4EA3-AEC7-182CD289D3ED}" name="Status" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{79B3701A-818D-4EA3-AEC7-182CD289D3ED}" name="Status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -336,14 +336,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AE2F086E-D2B3-45D5-BB86-7CAF49C40F01}" name="Clinical_Trials34" displayName="Clinical_Trials34" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{0D0C8BBE-3320-423E-B998-DEBB4D4A62E6}" name="NCT" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2DF57425-C843-4C18-AD19-929DD85FD1EA}" name="Sponsor" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0D0C8BBE-3320-423E-B998-DEBB4D4A62E6}" name="NCT" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2DF57425-C843-4C18-AD19-929DD85FD1EA}" name="Sponsor" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{C0280108-35CC-40A0-BDF8-2A15E07746DC}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{F980A203-1043-4990-985F-ED91511A716F}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{D1E080A6-33FB-44E5-BCD5-67DD8B877D2E}" name="Phase" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{D1E080A6-33FB-44E5-BCD5-67DD8B877D2E}" name="Phase" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{997919AD-B609-4B85-9FBA-FA4BF0571560}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{F079E385-84BE-42C7-B284-A35F681E3382}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{E505F9E0-776B-4425-8A47-9B8B09BBC2E4}" name="Status" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E505F9E0-776B-4425-8A47-9B8B09BBC2E4}" name="Status" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -352,14 +352,14 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD6B2D82-F5C8-41CE-B468-A89F96F0A838}" name="Clinical_Trials345" displayName="Clinical_Trials345" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{9165CD6E-98D5-42B6-B61A-9C2890904488}" name="NCT" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{8F1594B1-F092-4AC4-9524-94AC5F492DC8}" name="Sponsor" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9165CD6E-98D5-42B6-B61A-9C2890904488}" name="NCT" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8F1594B1-F092-4AC4-9524-94AC5F492DC8}" name="Sponsor" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{C9AFF97B-1934-41DC-9FFA-428DE3DD4061}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{C9CE609D-5088-4CB4-9613-52491B9CFFDF}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{ACF81D56-73E6-4175-BC25-29176EB35A17}" name="Phase" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{ACF81D56-73E6-4175-BC25-29176EB35A17}" name="Phase" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{9B1E7891-CA51-4CAF-B12C-556FF5E7F837}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{EADB7FE4-419E-4FB2-9046-55746DA85880}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{D9553A55-D3C6-4457-AA5A-F9F11577757B}" name="Status" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D9553A55-D3C6-4457-AA5A-F9F11577757B}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,7 +631,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cvičení/Chybejici.xlsx
+++ b/Cvičení/Chybejici.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DataBon\datova-analyza-excel\Cvičení\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\datova-analyza-excel\Cvičení\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E21AAB-FB53-4B12-924E-E930AE849AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296C908-9964-4F70-8A80-440E4799D8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Průměr" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Podmíněná kategorie" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="48">
   <si>
     <t>NCT</t>
   </si>
@@ -163,6 +166,27 @@
   </si>
   <si>
     <t>Rozptyl imputací</t>
+  </si>
+  <si>
+    <t>PrůměrZaStatus</t>
+  </si>
+  <si>
+    <t>DoplněnýEnrollment</t>
+  </si>
+  <si>
+    <t>Hodnota chybí</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Status</t>
   </si>
 </sst>
 </file>
@@ -204,14 +228,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -285,33 +321,317 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michal" refreshedDate="45630.652020717593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{61A95D64-F1C2-440C-8701-1ED89B08CBBA}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Clinical_Trials34"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="NCT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Sponsor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start_Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1997" maxValue="2002"/>
+    </cacheField>
+    <cacheField name="Start_Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Phase" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Enrollment" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15603"/>
+    </cacheField>
+    <cacheField name="Missing" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15603"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Completed"/>
+        <m/>
+        <s v="Unknown status"/>
+        <s v="Withdrawn"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+  <r>
+    <s v="NCT00003305"/>
+    <s v="Sanofi"/>
+    <n v="1997"/>
+    <n v="7"/>
+    <s v="Phase 2"/>
+    <n v="75"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00003821"/>
+    <s v="Sanofi"/>
+    <n v="1998"/>
+    <n v="1"/>
+    <s v="Phase 2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00004025"/>
+    <s v="Sanofi"/>
+    <n v="1999"/>
+    <n v="3"/>
+    <s v="Phase 1/Phase 2"/>
+    <n v="36"/>
+    <n v="36"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NCT00034918"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="5"/>
+    <s v="Phase 2"/>
+    <n v="44"/>
+    <n v="44"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00042341"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="5"/>
+    <s v="Phase 2"/>
+    <n v="60"/>
+    <n v="60"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00042354"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="5"/>
+    <s v="Phase 2"/>
+    <n v="40"/>
+    <n v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00043784"/>
+    <s v="Sanofi"/>
+    <n v="2001"/>
+    <n v="8"/>
+    <s v="Phase 3"/>
+    <n v="8000"/>
+    <n v="8000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00044811"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="3"/>
+    <s v="Phase 3"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NCT00044824"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="2"/>
+    <s v="Phase 3"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="NCT00044889"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="5"/>
+    <s v="Phase 2"/>
+    <n v="40"/>
+    <n v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00045955"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="2"/>
+    <s v="Phase 3"/>
+    <n v="1200"/>
+    <n v="1200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00046150"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="5"/>
+    <s v="Phase 3"/>
+    <n v="59"/>
+    <n v="59"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="NCT00046683"/>
+    <s v="Sanofi"/>
+    <n v="2001"/>
+    <n v="7"/>
+    <s v="Phase 3"/>
+    <n v="284"/>
+    <n v="284"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00047788"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="10"/>
+    <s v="Phase 2"/>
+    <n v="30"/>
+    <n v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="NCT00047840"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="10"/>
+    <s v="Phase 2"/>
+    <n v="129"/>
+    <n v="129"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00050778"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="12"/>
+    <s v="Phase 2"/>
+    <n v="334"/>
+    <n v="334"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="NCT00050817"/>
+    <s v="Sanofi"/>
+    <n v="2002"/>
+    <n v="10"/>
+    <s v="Phase 3"/>
+    <n v="15603"/>
+    <n v="15603"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67690C7B-9A0C-4EC8-A349-2801F82662E5}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K2:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Status" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{973823E0-4E11-43D6-AEB1-604039905AC9}" name="Clinical_Trials" displayName="Clinical_Trials" ref="A1:H23" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{D008BE52-5459-4F3E-8096-7BA7374A4AAE}" name="NCT" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{7E0BBD67-DD6F-49CB-8B3A-6A6914C84DDB}" name="Sponsor" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D008BE52-5459-4F3E-8096-7BA7374A4AAE}" name="NCT" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7E0BBD67-DD6F-49CB-8B3A-6A6914C84DDB}" name="Sponsor" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{B72D818D-E5DC-4324-88C0-0F07DF142B92}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{D93B692B-C477-43B9-997A-987E43D17045}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{7D38864D-1AA7-4095-AFEA-68361873C2E6}" name="Phase" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{7D38864D-1AA7-4095-AFEA-68361873C2E6}" name="Phase" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{9E46E03D-5099-4034-B866-EBA0DFA11257}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{AA395037-67C9-46DC-A2A0-0567A30EF630}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{9AB54A4E-4F6E-42D7-8474-5B7695F8AA2B}" name="Status" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{9AB54A4E-4F6E-42D7-8474-5B7695F8AA2B}" name="Status" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12A17FCA-4449-446B-9570-F6ECBD56CD53}" name="Clinical_Trials3" displayName="Clinical_Trials3" ref="A1:H23" totalsRowShown="0">
-  <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{5155F334-5717-43AF-B080-AB9A361BC45D}" name="NCT" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A2C2F9B8-05C1-44F6-928F-CBE9DAB06F31}" name="Sponsor" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12A17FCA-4449-446B-9570-F6ECBD56CD53}" name="Clinical_Trials3" displayName="Clinical_Trials3" ref="A1:J23" totalsRowShown="0">
+  <tableColumns count="10">
+    <tableColumn id="2" xr3:uid="{5155F334-5717-43AF-B080-AB9A361BC45D}" name="NCT" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A2C2F9B8-05C1-44F6-928F-CBE9DAB06F31}" name="Sponsor" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{74D08941-9BFB-4208-AEAD-5DFDB9195283}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{6678C9F7-7E4B-4A9F-BC24-92C50458D2C5}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{41C02EF8-B2A7-4822-9E1D-D9E177A509C4}" name="Phase" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{41C02EF8-B2A7-4822-9E1D-D9E177A509C4}" name="Phase" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{A39BCB79-0372-4812-8C77-99DDD3FEC47F}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{A4F6D396-346B-4D6B-8411-8157BAF4233B}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{687AB90E-F99A-4A79-A06F-312470F6C63B}" name="Status" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A54A81D5-0EF3-4F4D-A4C8-D031B78318CE}" name="PrůměrZaStatus" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5ABA8907-9235-410A-8F0C-B2EB57B65FC9}" name="DoplněnýEnrollment" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{687AB90E-F99A-4A79-A06F-312470F6C63B}" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -320,14 +640,14 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21E026CE-CB29-4E60-B4E1-6A2AAB308488}" name="Clinical_Trials346" displayName="Clinical_Trials346" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{3D23E28B-4F4F-4588-ADFC-8D036AC4A728}" name="NCT" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A64DEFAF-4348-4758-B023-408E417149E5}" name="Sponsor" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3D23E28B-4F4F-4588-ADFC-8D036AC4A728}" name="NCT" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A64DEFAF-4348-4758-B023-408E417149E5}" name="Sponsor" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{FCC1EAE7-1EA9-4A30-A25C-39E0520B79B4}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{B8A09C7E-3D4E-4C52-B530-0A8C09C15787}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{C4FE3385-0D4C-4644-B1DD-15F2A731EE9F}" name="Phase" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{C4FE3385-0D4C-4644-B1DD-15F2A731EE9F}" name="Phase" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{B61BCF05-D8A4-4F58-BFB5-A5B597F1DCDA}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{B363C291-2FAC-4B0C-87E4-CA11FE79C096}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{79B3701A-818D-4EA3-AEC7-182CD289D3ED}" name="Status" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{79B3701A-818D-4EA3-AEC7-182CD289D3ED}" name="Status" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -336,14 +656,14 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AE2F086E-D2B3-45D5-BB86-7CAF49C40F01}" name="Clinical_Trials34" displayName="Clinical_Trials34" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{0D0C8BBE-3320-423E-B998-DEBB4D4A62E6}" name="NCT" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2DF57425-C843-4C18-AD19-929DD85FD1EA}" name="Sponsor" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0D0C8BBE-3320-423E-B998-DEBB4D4A62E6}" name="NCT" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2DF57425-C843-4C18-AD19-929DD85FD1EA}" name="Sponsor" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{C0280108-35CC-40A0-BDF8-2A15E07746DC}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{F980A203-1043-4990-985F-ED91511A716F}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{D1E080A6-33FB-44E5-BCD5-67DD8B877D2E}" name="Phase" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{D1E080A6-33FB-44E5-BCD5-67DD8B877D2E}" name="Phase" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{997919AD-B609-4B85-9FBA-FA4BF0571560}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{F079E385-84BE-42C7-B284-A35F681E3382}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{E505F9E0-776B-4425-8A47-9B8B09BBC2E4}" name="Status" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E505F9E0-776B-4425-8A47-9B8B09BBC2E4}" name="Status" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -352,14 +672,14 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DD6B2D82-F5C8-41CE-B468-A89F96F0A838}" name="Clinical_Trials345" displayName="Clinical_Trials345" ref="A1:H18" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{9165CD6E-98D5-42B6-B61A-9C2890904488}" name="NCT" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8F1594B1-F092-4AC4-9524-94AC5F492DC8}" name="Sponsor" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9165CD6E-98D5-42B6-B61A-9C2890904488}" name="NCT" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8F1594B1-F092-4AC4-9524-94AC5F492DC8}" name="Sponsor" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{C9AFF97B-1934-41DC-9FFA-428DE3DD4061}" name="Start_Year"/>
     <tableColumn id="7" xr3:uid="{C9CE609D-5088-4CB4-9613-52491B9CFFDF}" name="Start_Month"/>
-    <tableColumn id="8" xr3:uid="{ACF81D56-73E6-4175-BC25-29176EB35A17}" name="Phase" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{ACF81D56-73E6-4175-BC25-29176EB35A17}" name="Phase" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{9B1E7891-CA51-4CAF-B12C-556FF5E7F837}" name="Enrollment"/>
     <tableColumn id="1" xr3:uid="{EADB7FE4-419E-4FB2-9046-55746DA85880}" name="Missing"/>
-    <tableColumn id="10" xr3:uid="{D9553A55-D3C6-4457-AA5A-F9F11577757B}" name="Status" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{D9553A55-D3C6-4457-AA5A-F9F11577757B}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,7 +951,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +965,7 @@
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -737,7 +1057,7 @@
       </c>
       <c r="K3">
         <f>AVERAGE(Clinical_Trials[Missing])</f>
-        <v>1643.1764705882354</v>
+        <v>1643.1764705882351</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -783,14 +1103,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>1643.1764705882354</v>
+      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f>_xlfn.VAR.S(Clinical_Trials[Enrollment])</f>
         <v>16576375.529411765</v>
       </c>
@@ -823,9 +1145,9 @@
       <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f>_xlfn.VAR.S(Clinical_Trials[Missing])</f>
-        <v>16576375.529411765</v>
+        <v>12629619.450980393</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -923,7 +1245,9 @@
         <v>16</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1643.1764705882354</v>
+      </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +1399,9 @@
         <v>16</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1643.1764705882354</v>
+      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1423,9 @@
         <v>16</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1643.1764705882354</v>
+      </c>
       <c r="H17" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1525,9 @@
         <v>14</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1643.1764705882354</v>
+      </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
@@ -1264,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3DB2E5-8CAB-480F-8231-E3773D17DFC5}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,12 +1609,14 @@
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1307,10 +1639,16 @@
         <v>36</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1332,18 +1670,26 @@
       <c r="G2">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="H2">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I2">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f>AVERAGE(Clinical_Trials[Enrollment])</f>
         <v>1643.1764705882354</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1365,18 +1711,26 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>510</v>
+      </c>
+      <c r="I3">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="K3">
-        <f>AVERAGE(Clinical_Trials[Missing])</f>
-        <v>1643.1764705882354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>AVERAGE(Clinical_Trials3[DoplněnýEnrollment])</f>
+        <v>1694.8727272727272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1398,11 +1752,19 @@
       <c r="G4">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I4">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1420,18 +1782,26 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" t="s">
-        <v>10</v>
+      <c r="H5" s="1">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I5" s="1">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>1262</v>
       </c>
       <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f>_xlfn.VAR.S(Clinical_Trials[Enrollment])</f>
         <v>16576375.529411765</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1453,18 +1823,26 @@
       <c r="G6">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
+      <c r="H6">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I6">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="K6">
-        <f>_xlfn.VAR.S(Clinical_Trials[Missing])</f>
-        <v>16576375.529411765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f>_xlfn.VAR.S(Clinical_Trials3[DoplněnýEnrollment])</f>
+        <v>12920808.283982685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1486,11 +1864,19 @@
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I7">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1512,11 +1898,19 @@
       <c r="G8">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I8">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1538,11 +1932,19 @@
       <c r="G9">
         <v>8000</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I9">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>8000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1560,11 +1962,19 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
+      <c r="H10" s="1">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>510</v>
+      </c>
+      <c r="I10" s="1">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>510</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1586,11 +1996,19 @@
       <c r="G11">
         <v>1000</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>510</v>
+      </c>
+      <c r="I11">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>1000</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1612,11 +2030,19 @@
       <c r="G12">
         <v>1000</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>510</v>
+      </c>
+      <c r="I12">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>1000</v>
+      </c>
+      <c r="J12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1638,11 +2064,19 @@
       <c r="G13">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>510</v>
+      </c>
+      <c r="I13">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1664,11 +2098,19 @@
       <c r="G14">
         <v>1200</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I14">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>1200</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1690,11 +2132,19 @@
       <c r="G15">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I15">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1712,11 +2162,19 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" t="s">
+      <c r="H16" s="1">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I16" s="1">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="J16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1734,11 +2192,19 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I17" s="1">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>1262</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1760,11 +2226,19 @@
       <c r="G18">
         <v>284</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I18">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>284</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1786,11 +2260,19 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I19">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1812,11 +2294,19 @@
       <c r="G20">
         <v>129</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I20">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1834,11 +2324,19 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" t="s">
+      <c r="H21" s="1">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I21" s="1">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="J21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1860,11 +2358,19 @@
       <c r="G22">
         <v>334</v>
       </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>1262</v>
+      </c>
+      <c r="I22">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>334</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1886,7 +2392,15 @@
       <c r="G23">
         <v>15603</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <f>AVERAGEIF(Clinical_Trials3[Status],Clinical_Trials3[[#This Row],[Status]],Clinical_Trials3[Enrollment])</f>
+        <v>3159.6</v>
+      </c>
+      <c r="I23">
+        <f>IF(ISBLANK(Clinical_Trials3[[#This Row],[Enrollment]]),Clinical_Trials3[[#This Row],[PrůměrZaStatus]],Clinical_Trials3[[#This Row],[Enrollment]])</f>
+        <v>15603</v>
+      </c>
+      <c r="J23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1903,7 +2417,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H3" sqref="H3 H6:H7 H11 H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1992,7 +2506,9 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2068,7 +2584,9 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2092,7 +2610,9 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2194,7 +2714,9 @@
       <c r="G11">
         <v>40</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2270,7 +2792,9 @@
       <c r="G14">
         <v>284</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2294,7 +2818,9 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2384,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D67AD35-3315-48A5-86AF-C43A46458535}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:H18"/>
+      <selection activeCell="H3" sqref="H3 H6:H7 H11 H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,9 +2926,11 @@
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2453,8 +2981,14 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2476,9 +3010,17 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2503,8 +3045,14 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2529,8 +3077,14 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2552,9 +3106,15 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2576,9 +3136,17 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2604,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2630,7 +3198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2656,7 +3224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2678,9 +3246,11 @@
       <c r="G11">
         <v>40</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2706,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2732,7 +3302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2754,9 +3324,11 @@
       <c r="G14">
         <v>284</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2778,9 +3350,11 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2861,7 +3435,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2871,7 +3445,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2884,6 +3458,8 @@
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
